--- a/bots/crawl_ch/output/office_coop_2022-07-11.xlsx
+++ b/bots/crawl_ch/output/office_coop_2022-07-11.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -922,36 +922,32 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5043584</t>
+          <t>4047041</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Verpackungsband transparent 50 mm x 66 m</t>
+          <t>Qualité&amp;amp;Prix Universal-Klebeband 30mm x 50m</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-verpackungsband-transparent-50-mm-x-66-m/p/5043584</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-universal-klebeband-30mm-x-50m/p/4047041</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -963,26 +959,10 @@
           <t>2.95</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2.95/1ST</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
@@ -990,38 +970,42 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Verpackungsband transparent 50 mm x 66 m 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Universal-Klebeband 30mm x 50m 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4047041</t>
+          <t>5043584</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Universal-Klebeband 30mm x 50m</t>
+          <t>Qualité&amp;amp;Prix Verpackungsband transparent 50 mm x 66 m</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-universal-klebeband-30mm-x-50m/p/4047041</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-verpackungsband-transparent-50-mm-x-66-m/p/5043584</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -1032,10 +1016,26 @@
           <t>2.95</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2.95/1ST</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Universal-Klebeband 30mm x 50m 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Verpackungsband transparent 50 mm x 66 m 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1519,50 +1519,50 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3424772</t>
+          <t>3267384</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Caran d'Ache Blister Bleistifte Edelweiss 4 St HB-FSC</t>
+          <t>Qualité&amp;amp;Prix Schnur 60m</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/caran-d-ache-blister-bleistifte-edelweiss-4-st-hb-fsc/p/3424772</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-schnur-60m/p/3267384</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Caran d'ache</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.49/1ST</t>
+          <t>2.20/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1582,60 +1582,60 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Caran d'Ache Blister Bleistifte Edelweiss 4 St HB-FSC 1.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Schnur 60m 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3267384</t>
+          <t>3424772</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schnur 60m</t>
+          <t>Caran d'Ache Blister Bleistifte Edelweiss 4 St HB-FSC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/qualite-prix-schnur-60m/p/3267384</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/caran-d-ache-blister-bleistifte-edelweiss-4-st-hb-fsc/p/3424772</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Caran d'ache</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.20/1ST</t>
+          <t>0.49/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1655,17 +1655,17 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schnur 60m 2.20 Schweizer Franken</t>
+          <t>Caran d'Ache Blister Bleistifte Edelweiss 4 St HB-FSC 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2473,50 +2473,48 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3664688</t>
+          <t>3268661</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C4 12 Stk.</t>
+          <t>Scotch® Crystal Tape</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c4/qualite-prix-kuvert-c4-12-stk/p/3664688</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/scotch-crystal-tape/p/3268661</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>3</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.25/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2526,7 +2524,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2536,39 +2534,39 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c4']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C4 12 Stk. 3.00 Schweizer Franken</t>
+          <t>Scotch® Crystal Tape 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3268661</t>
+          <t>3267345002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Scotch® Crystal Tape</t>
+          <t>Oecoplan Notizblock karriert A6 3x100 Stück</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/scotch-crystal-tape/p/3268661</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/oecoplan-notizblock-karriert-a6-3x100-stueck/p/3267345002</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>3ST</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2577,17 +2575,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Scotch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>0.73/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2597,7 +2595,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2607,44 +2605,46 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Scotch® Crystal Tape 3.20 Schweizer Franken</t>
+          <t>Oecoplan Notizblock karriert A6 3x100 Stück 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3267345002</t>
+          <t>3664688</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Oecoplan Notizblock karriert A6 3x100 Stück</t>
+          <t>Qualité&amp;amp;Prix Kuvert C4 12 Stk.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/bloecke/oecoplan-notizblock-karriert-a6-3x100-stueck/p/3267345002</t>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c4/qualite-prix-kuvert-c4-12-stk/p/3664688</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3ST</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2653,12 +2653,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.73/1ST</t>
+          <t>0.25/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2678,17 +2678,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'bloecke']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c4']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Oecoplan Notizblock karriert A6 3x100 Stück 2.20 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kuvert C4 12 Stk. 3.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -3825,123 +3825,123 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3753099</t>
+          <t>3887746</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Oecoplan Leinenschnur 60 m</t>
+          <t>Läufer Radiergummi Combi Plast 720 2 Stück</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/schnur/oecoplan-leinenschnur-60-m/p/3753099</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/radiergummis/laeufer-radiergummi-combi-plast-720-2-stueck/p/3887746</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Läufer</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1.05/1ST</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>3.90/1ST</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'schnur']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'radiergummis']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Oecoplan Leinenschnur 60 m 3.90 Schweizer Franken</t>
+          <t>Läufer Radiergummi Combi Plast 720 2 Stück 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3887746</t>
+          <t>3753099</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Läufer Radiergummi Combi Plast 720 2 Stück</t>
+          <t>Oecoplan Leinenschnur 60 m</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/radiergummis/laeufer-radiergummi-combi-plast-720-2-stueck/p/3887746</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/schnur/oecoplan-leinenschnur-60-m/p/3753099</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Läufer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1.05/1ST</t>
+          <t>3.90/1ST</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3961,17 +3961,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'radiergummis']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'schnur']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Läufer Radiergummi Combi Plast 720 2 Stück 2.10 Schweizer Franken</t>
+          <t>Oecoplan Leinenschnur 60 m 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -4042,50 +4042,48 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3667780</t>
+          <t>4911656</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 12-tlg</t>
+          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kartonregister-a4-12-tlg/p/3667780</t>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-sekunden-kleber-ultra-gel-mini-3-stueck/p/4911656</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>2</v>
-      </c>
+          <t>3ST</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pattex</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.73/1ST</t>
+          <t>1.83/1ST</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4095,7 +4093,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4105,58 +4103,60 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 12-tlg 3.45 Schweizer Franken</t>
+          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4911656</t>
+          <t>3353538</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück</t>
+          <t>STABILO Leuchtstift BOSS ORIGINAL 4er Etui</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-sekunden-kleber-ultra-gel-mini-3-stueck/p/4911656</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/stabilo-leuchtstift-boss-original-4er-etui/p/3353538</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3ST</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Pattex</t>
+          <t>Stabilo</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1.83/1ST</t>
+          <t>1.43/1ST</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4176,60 +4176,60 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück 5.50 Schweizer Franken</t>
+          <t>STABILO Leuchtstift BOSS ORIGINAL 4er Etui 5.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3353538</t>
+          <t>3667780</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>STABILO Leuchtstift BOSS ORIGINAL 4er Etui</t>
+          <t>Oecoplan Kartonregister A4 12-tlg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/stabilo-leuchtstift-boss-original-4er-etui/p/3353538</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/oecoplan-kartonregister-a4-12-tlg/p/3667780</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Stabilo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1.43/1ST</t>
+          <t>1.73/1ST</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4249,145 +4249,145 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>STABILO Leuchtstift BOSS ORIGINAL 4er Etui 5.70 Schweizer Franken</t>
+          <t>Oecoplan Kartonregister A4 12-tlg 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6876715</t>
+          <t>3424775</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Canon Kopierpapier Black Label</t>
+          <t>Caran d'Ache Blister Bürokugelschr.Knopf Blau 2Stk</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/canon-kopierpapier-black-label/p/6876715</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/caran-d-ache-blister-buerokugelschrknopf-blau-2stk/p/3424775</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>500BLT</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>11</v>
+      </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Caran d'ache</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1.98/1ST</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Canon Kopierpapier Black Label 8.95 Schweizer Franken</t>
+          <t>Caran d'Ache Blister Bürokugelschr.Knopf Blau 2Stk 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3424775</t>
+          <t>6876715</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Caran d'Ache Blister Bürokugelschr.Knopf Blau 2Stk</t>
+          <t>Canon Kopierpapier Black Label</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/caran-d-ache-blister-buerokugelschrknopf-blau-2stk/p/3424775</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/canon-kopierpapier-black-label/p/6876715</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>11</v>
-      </c>
+          <t>500BLT</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Caran d'ache</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1.98/1ST</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Caran d'Ache Blister Bürokugelschr.Knopf Blau 2Stk 3.95 Schweizer Franken</t>
+          <t>Canon Kopierpapier Black Label 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -4602,39 +4602,41 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6597677</t>
+          <t>4638648</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kugelschreiber 3 Stk.</t>
+          <t>PRITT Klebestift (80 mm)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/kugelschreiber/qualite-prix-kugelschreiber-3-stk/p/6597677</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/pritt-klebestift-80-mm/p/4638648</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -4643,51 +4645,49 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'kugelschreiber']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kugelschreiber 3 Stk. 3.50 Schweizer Franken</t>
+          <t>PRITT Klebestift (80 mm) 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4638648</t>
+          <t>6597677</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (80 mm)</t>
+          <t>Qualité&amp;amp;Prix Kugelschreiber 3 Stk.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/pritt-klebestift-80-mm/p/4638648</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/kugelschreiber/qualite-prix-kugelschreiber-3-stk/p/6597677</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
-        <v>3</v>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pritt</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4696,17 +4696,17 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'kugelschreiber']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (80 mm) 4.80 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kugelschreiber 3 Stk. 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -4852,50 +4852,50 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3673118</t>
+          <t>3662265</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Collegeblock A4 kariert</t>
+          <t>UHU patafix weiss 80 Stück</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/collegeblock-a4-kariert/p/3673118</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/uhu-patafix-weiss-80-stueck/p/3662265</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Uhu</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3.95/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4915,39 +4915,39 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Collegeblock A4 kariert - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>UHU patafix weiss 80 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3887748</t>
+          <t>3673118</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Läufer Radiergummi Plast Soft 121 2 Stück</t>
+          <t>Collegeblock A4 kariert</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/laeufer-radiergummi-plast-soft-121-2-stueck/p/3887748</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/collegeblock-a4-kariert/p/3673118</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -4958,17 +4958,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Läufer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1.10/1ST</t>
+          <t>3.95/1ST</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4988,60 +4988,60 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Läufer Radiergummi Plast Soft 121 2 Stück 2.20 Schweizer Franken</t>
+          <t>Collegeblock A4 kariert - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3662265</t>
+          <t>3887748</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>UHU patafix weiss 80 Stück</t>
+          <t>Läufer Radiergummi Plast Soft 121 2 Stück</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/uhu-patafix-weiss-80-stueck/p/3662265</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/laeufer-radiergummi-plast-soft-121-2-stueck/p/3887748</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Uhu</t>
+          <t>Läufer</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>1.10/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5061,17 +5061,17 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>UHU patafix weiss 80 Stück 4.95 Schweizer Franken</t>
+          <t>Läufer Radiergummi Plast Soft 121 2 Stück 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7035,7 +7035,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11189,7 +11189,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11240,7 +11240,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11612,7 +11612,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12268,24 +12268,24 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>4064628</t>
+          <t>4961013</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>HP Patrone 301 schwarz CH561EE</t>
+          <t>Heftapparat easy blau</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-patrone-301-schwarz-ch561ee/p/4064628</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/heftapparat-easy-blau/p/4961013</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -12295,12 +12295,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
@@ -12309,108 +12309,92 @@
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>HP Patrone 301 schwarz CH561EE 21.95 Schweizer Franken</t>
+          <t>Heftapparat easy blau 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>4492561</t>
+          <t>4064628</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Karteikarten A7 liniert weiss 180g 100Bl</t>
+          <t>HP Patrone 301 schwarz CH561EE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/karteikarten-a7-liniert-weiss-180g-100bl/p/4492561</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>100ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-patrone-301-schwarz-ch561ee/p/4064628</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>0.02/1ST</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>Karteikarten A7 liniert weiss 180g 100Bl 1.60 Schweizer Franken</t>
+          <t>HP Patrone 301 schwarz CH561EE 21.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>5728784</t>
+          <t>4492561</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Sammelmappe blau</t>
+          <t>Karteikarten A7 liniert weiss 180g 100Bl</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-sammelmappe-blau/p/5728784</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/karteikarten-a7-liniert-weiss-180g-100bl/p/4492561</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>100ST</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
         <v>0</v>
@@ -12422,60 +12406,74 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>0.02/1ST</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Sammelmappe blau 1.75 Schweizer Franken</t>
+          <t>Karteikarten A7 liniert weiss 180g 100Bl 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>4064738</t>
+          <t>5728784</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CANON Patrone PGI-525 schwarz</t>
+          <t>Qualité&amp;amp;Prix Sammelmappe blau</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-patrone-pgi-525-schwarz/p/4064738</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-sammelmappe-blau/p/5728784</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="n">
-        <v>2</v>
-      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Epson</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
@@ -12484,51 +12482,51 @@
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>CANON Patrone PGI-525 schwarz 21.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Sammelmappe blau 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>4454823</t>
+          <t>4064738</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Canon PG-540/CL-541 MP PIXMA schwarz/color</t>
+          <t>CANON Patrone PGI-525 schwarz</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-pg-540cl-541-mp-pixma-schwarzcolor/p/4454823</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-patrone-pgi-525-schwarz/p/4064738</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F188" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Epson</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>21.95</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
@@ -12542,44 +12540,46 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>Canon PG-540/CL-541 MP PIXMA schwarz/color 49.95 Schweizer Franken</t>
+          <t>CANON Patrone PGI-525 schwarz 21.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>4363028</t>
+          <t>4454823</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Clairefontaine Schulheft A4 kariert</t>
+          <t>Canon PG-540/CL-541 MP PIXMA schwarz/color</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/clairefontaine-schulheft-a4-kariert/p/4363028</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-pg-540cl-541-mp-pixma-schwarzcolor/p/4454823</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Clairefontaine</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
@@ -12588,46 +12588,44 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>Clairefontaine Schulheft A4 kariert 4.95 Schweizer Franken</t>
+          <t>Canon PG-540/CL-541 MP PIXMA schwarz/color 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>5043050</t>
+          <t>4363028</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Dreifachspitzdose GRIP 2001 silber</t>
+          <t>Clairefontaine Schulheft A4 kariert</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/dreifachspitzdose-grip-2001-silber/p/5043050</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/clairefontaine-schulheft-a4-kariert/p/4363028</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
+      <c r="E190" t="inlineStr"/>
       <c r="F190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Faber Castell</t>
+          <t>Clairefontaine</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -12641,48 +12639,46 @@
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>Dreifachspitzdose GRIP 2001 silber 4.95 Schweizer Franken</t>
+          <t>Clairefontaine Schulheft A4 kariert 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>3268640</t>
+          <t>5043050</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Giotto Fasermaler Turbo Color 12 Stück</t>
+          <t>Dreifachspitzdose GRIP 2001 silber</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/giotto-fasermaler-turbo-color-12-stueck/p/3268640</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/dreifachspitzdose-grip-2001-silber/p/5043050</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Giotto</t>
+          <t>Faber Castell</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -12690,90 +12686,94 @@
           <t>4.95</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>0.41/1ST</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>Giotto Fasermaler Turbo Color 12 Stück 4.95 Schweizer Franken</t>
+          <t>Dreifachspitzdose GRIP 2001 silber 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>4961013</t>
+          <t>3268640</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Heftapparat easy blau</t>
+          <t>Giotto Fasermaler Turbo Color 12 Stück</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/heftapparat-easy-blau/p/4961013</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/giotto-fasermaler-turbo-color-12-stueck/p/3268640</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>12ST</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Giotto</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>0.41/1ST</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>Heftapparat easy blau 9.95 Schweizer Franken</t>
+          <t>Giotto Fasermaler Turbo Color 12 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12844,7 +12844,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13019,7 +13019,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13070,7 +13070,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13141,7 +13141,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13387,7 +13387,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13755,7 +13755,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14176,7 +14176,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14298,7 +14298,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14846,7 +14846,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15070,7 +15070,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15263,7 +15263,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15737,7 +15737,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15810,7 +15810,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16005,7 +16005,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16056,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16107,7 +16107,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16428,7 +16428,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16554,7 +16554,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16658,7 +16658,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16731,7 +16731,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16782,7 +16782,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -16955,7 +16955,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17183,7 +17183,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17254,7 +17254,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17480,7 +17480,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17606,7 +17606,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17677,7 +17677,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17748,7 +17748,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17819,7 +17819,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17890,7 +17890,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18065,7 +18065,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18136,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18240,7 +18240,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18384,7 +18384,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18455,7 +18455,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18526,7 +18526,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18628,7 +18628,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18730,7 +18730,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18801,7 +18801,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18872,7 +18872,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -18976,7 +18976,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19047,7 +19047,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19098,7 +19098,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19169,7 +19169,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19240,7 +19240,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19311,7 +19311,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19362,7 +19362,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19413,7 +19413,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19484,7 +19484,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19610,7 +19610,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19734,7 +19734,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19785,7 +19785,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19856,7 +19856,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19909,7 +19909,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19980,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20204,7 +20204,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20277,7 +20277,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20399,7 +20399,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20472,7 +20472,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20543,7 +20543,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20614,7 +20614,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20716,7 +20716,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20767,7 +20767,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20869,7 +20869,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20920,7 +20920,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21024,7 +21024,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21166,7 +21166,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21217,7 +21217,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21427,7 +21427,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21498,7 +21498,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21640,7 +21640,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21744,7 +21744,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21866,7 +21866,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21937,7 +21937,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -21988,7 +21988,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22039,7 +22039,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22110,7 +22110,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22161,7 +22161,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22212,7 +22212,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22314,7 +22314,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22365,7 +22365,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22469,7 +22469,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22624,7 +22624,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22726,7 +22726,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22828,7 +22828,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22881,7 +22881,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22932,7 +22932,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -22983,7 +22983,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23034,7 +23034,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23085,7 +23085,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23136,7 +23136,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23187,7 +23187,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23238,7 +23238,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23380,7 +23380,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23451,7 +23451,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23524,7 +23524,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23595,7 +23595,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23646,7 +23646,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23697,7 +23697,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23819,7 +23819,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23870,7 +23870,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23921,7 +23921,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -23972,7 +23972,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24023,7 +24023,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24229,7 +24229,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24280,7 +24280,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24331,7 +24331,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24433,7 +24433,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24484,7 +24484,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24535,7 +24535,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24606,7 +24606,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24677,7 +24677,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24730,7 +24730,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24783,7 +24783,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24834,7 +24834,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24887,7 +24887,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24940,7 +24940,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -24993,7 +24993,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25095,7 +25095,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25148,7 +25148,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25201,7 +25201,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25252,7 +25252,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25303,7 +25303,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25405,7 +25405,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25456,7 +25456,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25507,7 +25507,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25578,7 +25578,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25651,7 +25651,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25722,7 +25722,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25773,7 +25773,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25824,7 +25824,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25895,7 +25895,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -25966,7 +25966,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26017,7 +26017,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26068,7 +26068,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26212,7 +26212,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26334,7 +26334,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26387,7 +26387,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26458,7 +26458,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26529,7 +26529,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26600,7 +26600,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26742,7 +26742,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26813,7 +26813,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26864,7 +26864,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -26966,7 +26966,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27037,7 +27037,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27108,7 +27108,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27232,7 +27232,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27303,7 +27303,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27374,7 +27374,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27427,7 +27427,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27498,7 +27498,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27551,7 +27551,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27602,7 +27602,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27655,7 +27655,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27706,7 +27706,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -27952,7 +27952,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -28023,7 +28023,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
@@ -28074,7 +28074,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-07-11 18:39:01</t>
+          <t>2022-07-11 20:58:33</t>
         </is>
       </c>
     </row>
